--- a/DATA_goal/Junction_Flooding_394.xlsx
+++ b/DATA_goal/Junction_Flooding_394.xlsx
@@ -446,11 +446,11 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
@@ -461,19 +461,19 @@
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>44781.96527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.82</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.24</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.96</v>
+        <v>19.6</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.42</v>
+        <v>14.2</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.89</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.93</v>
+        <v>19.28</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.1</v>
+        <v>10.96</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.56</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.7</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.76</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.88</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.14</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.78</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>10.13</v>
+        <v>101.32</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.96</v>
+        <v>19.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.59</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.22</v>
+        <v>12.19</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.91</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.55</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.82</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.61</v>
+        <v>6.11</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.09</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.69</v>
+        <v>16.88</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.33</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.97222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.59</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.29</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.44</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.59</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.02</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.19</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.73</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.56</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.93</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.13</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.62</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.5</v>
+        <v>5.02</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.67</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>4.99</v>
+        <v>49.91</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.63</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.65</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.61</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.85</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.93</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.33</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.49</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.43</v>
+        <v>14.27</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.72</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.97916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.14</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.9</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.07</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.67</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="L4" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.12</v>
       </c>
-      <c r="M4" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T4" s="4" t="n">
+      <c r="Z4" s="4" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AB4" s="4" t="n">
         <v>0.99</v>
       </c>
-      <c r="U4" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.1</v>
-      </c>
       <c r="AC4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.37</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.87</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.98611111111</v>
       </c>
       <c r="B5" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.13</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>0.3</v>
+        <v>2.95</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.35</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_394.xlsx
+++ b/DATA_goal/Junction_Flooding_394.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.96527777778</v>
+        <v>45075.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>8.82</v>
+        <v>12.77</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.24</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.79</v>
+        <v>3.488</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>19.6</v>
+        <v>27.776</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.2</v>
+        <v>20.765</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.89</v>
+        <v>9.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>19.28</v>
+        <v>29.191</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>10.96</v>
+        <v>15.707</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.56</v>
+        <v>6.218</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.7</v>
+        <v>9.112</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.76</v>
+        <v>10.928</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.68</v>
+        <v>11.76</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.88</v>
+        <v>3.255</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.14</v>
+        <v>10.151</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.41</v>
+        <v>13.871</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>6.78</v>
+        <v>9.122999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.56</v>
+        <v>2.77</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.75</v>
+        <v>1.592</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>101.32</v>
+        <v>147.125</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>19.6</v>
+        <v>28.067</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.59</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.19</v>
+        <v>18.004</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.91</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.8</v>
+        <v>2.728</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.55</v>
+        <v>15.858</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.82</v>
+        <v>8.276</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.51</v>
+        <v>7.652</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.11</v>
+        <v>9.069000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.57</v>
+        <v>11.378</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.09</v>
+        <v>2.869</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>16.88</v>
+        <v>26.432</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.33</v>
+        <v>4.957</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.24</v>
+        <v>11.713</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.97222222222</v>
+        <v>45075.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.59</v>
+        <v>18.102</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.29</v>
+        <v>13.159</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.24</v>
+        <v>1.817</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>10.44</v>
+        <v>39.655</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>7.59</v>
+        <v>31.61</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.02</v>
+        <v>14.122</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>15.19</v>
+        <v>53.101</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.73</v>
+        <v>22.106</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.56</v>
+        <v>9.574</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.93</v>
+        <v>14.003</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.13</v>
+        <v>15.847</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.62</v>
+        <v>16.923</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.53</v>
+        <v>4.589</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.76</v>
+        <v>14.287</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.02</v>
+        <v>20.129</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.67</v>
+        <v>12.349</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.71</v>
+        <v>1.395</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.42</v>
+        <v>1.064</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>49.91</v>
+        <v>210.134</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>10.63</v>
+        <v>39.929</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.47</v>
+        <v>13.187</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>6.65</v>
+        <v>26.485</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.61</v>
+        <v>13.819</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.45</v>
+        <v>2.463</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.470000000000001</v>
+        <v>26.538</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.07</v>
+        <v>11.648</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.93</v>
+        <v>10.481</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.33</v>
+        <v>12.341</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.49</v>
+        <v>16.576</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.97</v>
+        <v>1.165</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>14.27</v>
+        <v>48.637</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.72</v>
+        <v>7.277</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.34</v>
+        <v>16.487</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.97916666666</v>
+        <v>45075.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.28</v>
+        <v>23.416</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.86</v>
+        <v>17.348</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.74</v>
+        <v>1.539</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.14</v>
+        <v>51.193</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.9</v>
+        <v>41.514</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.59</v>
+        <v>18.347</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>7.07</v>
+        <v>71.07599999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.67</v>
+        <v>28.505</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.86</v>
+        <v>12.583</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.49</v>
+        <v>18.542</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.23</v>
+        <v>20.512</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.48</v>
+        <v>21.831</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.918</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.13</v>
+        <v>18.422</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.43</v>
+        <v>26.151</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.33</v>
+        <v>15.635</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.45</v>
+        <v>1.022</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.24</v>
+        <v>1.02</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>9.9</v>
+        <v>273.095</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.39</v>
+        <v>51.516</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.04</v>
+        <v>17.004</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.99</v>
+        <v>34.51</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.06</v>
+        <v>18.071</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.12</v>
+        <v>2.806</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.96</v>
+        <v>34.824</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.92</v>
+        <v>15.02</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.99</v>
+        <v>13.365</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.09</v>
+        <v>15.723</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.37</v>
+        <v>21.515</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.733</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.87</v>
+        <v>64.77</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.41</v>
+        <v>9.52</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.31</v>
+        <v>21.259</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.98611111111</v>
+        <v>45075.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.31</v>
+        <v>2.78</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.92</v>
+        <v>1.93</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.14</v>
+        <v>6.26</v>
       </c>
       <c r="F5" s="4" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>27.12</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="V5" s="4" t="n">
         <v>2.08</v>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.04</v>
-      </c>
       <c r="W5" s="4" t="n">
-        <v>1.85</v>
+        <v>4.43</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.02</v>
+        <v>2.16</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.59</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.95</v>
+        <v>7.43</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.92</v>
+        <v>1.84</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.77</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.07</v>
+        <v>2.06</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.35</v>
+        <v>2.59</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5</v>
+        <v>15.88</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.45</v>
+        <v>1.05</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.99304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.44</v>
+        <v>2.61</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_394.xlsx
+++ b/DATA_goal/Junction_Flooding_394.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45075.50694444445</v>
+        <v>44781.96527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>12.77</v>
+        <v>8.821999999999999</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.425000000000001</v>
+        <v>6.243</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.488</v>
+        <v>2.794</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>27.776</v>
+        <v>19.605</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>20.765</v>
+        <v>14.205</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>9.82</v>
+        <v>5.893</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>29.191</v>
+        <v>19.279</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>15.707</v>
+        <v>10.957</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.218</v>
+        <v>4.563</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.112</v>
+        <v>5.697</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>10.928</v>
+        <v>7.759</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>11.76</v>
+        <v>8.683999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.255</v>
+        <v>2.881</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.151</v>
+        <v>7.143</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>13.871</v>
+        <v>9.409000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.122999999999999</v>
+        <v>6.779</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.77</v>
+        <v>1.556</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.592</v>
+        <v>0.752</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>147.125</v>
+        <v>101.319</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>28.067</v>
+        <v>19.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>6.594</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>18.004</v>
+        <v>12.192</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.226000000000001</v>
+        <v>6.907</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.728</v>
+        <v>0.798</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>15.858</v>
+        <v>11.548</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.276</v>
+        <v>5.824</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.652</v>
+        <v>5.505</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.069000000000001</v>
+        <v>6.107</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.378</v>
+        <v>8.566000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.869</v>
+        <v>2.095</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>26.432</v>
+        <v>16.882</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.957</v>
+        <v>3.332</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>11.713</v>
+        <v>8.242000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45075.51388888889</v>
+        <v>44781.97222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>18.102</v>
+        <v>4.595</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.159</v>
+        <v>3.285</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.817</v>
+        <v>1.242</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>39.655</v>
+        <v>10.437</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>31.61</v>
+        <v>7.589</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.122</v>
+        <v>3.018</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>53.101</v>
+        <v>15.191</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>22.106</v>
+        <v>5.733</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.574</v>
+        <v>2.562</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14.003</v>
+        <v>2.933</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>15.847</v>
+        <v>4.131</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.923</v>
+        <v>4.622</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.589</v>
+        <v>1.526</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14.287</v>
+        <v>3.76</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>20.129</v>
+        <v>5.018</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.349</v>
+        <v>3.671</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.395</v>
+        <v>0.713</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.064</v>
+        <v>0.423</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>210.134</v>
+        <v>49.914</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>39.929</v>
+        <v>10.634</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.187</v>
+        <v>3.47</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>26.485</v>
+        <v>6.648</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.819</v>
+        <v>3.61</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.463</v>
+        <v>0.445</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>26.538</v>
+        <v>8.475</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.648</v>
+        <v>3.065</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.481</v>
+        <v>2.928</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.341</v>
+        <v>3.332</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>16.576</v>
+        <v>4.489</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.165</v>
+        <v>0.973</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>48.637</v>
+        <v>14.271</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.277</v>
+        <v>1.719</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.487</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45075.52083333334</v>
+        <v>44781.97916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>23.416</v>
+        <v>1.282</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>17.348</v>
+        <v>0.864</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.539</v>
+        <v>0.745</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>51.193</v>
+        <v>3.137</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>41.514</v>
+        <v>1.902</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>18.347</v>
+        <v>0.59</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>71.07599999999999</v>
+        <v>7.067</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>28.505</v>
+        <v>1.671</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>12.583</v>
+        <v>0.858</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>18.542</v>
+        <v>0.486</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>20.512</v>
+        <v>1.229</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>21.831</v>
+        <v>1.476</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.918</v>
+        <v>0.591</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>18.422</v>
+        <v>1.128</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>26.151</v>
+        <v>1.425</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>15.635</v>
+        <v>1.33</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.022</v>
+        <v>0.452</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1.02</v>
+        <v>0.241</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>273.095</v>
+        <v>9.896000000000001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>51.516</v>
+        <v>3.393</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>17.004</v>
+        <v>1.041</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>34.51</v>
+        <v>1.988</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>18.071</v>
+        <v>1.064</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.806</v>
+        <v>0.124</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>34.824</v>
+        <v>3.965</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>15.02</v>
+        <v>0.92</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13.365</v>
+        <v>0.985</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>15.723</v>
+        <v>1.092</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>21.515</v>
+        <v>1.367</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.733</v>
+        <v>0.644</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>64.77</v>
+        <v>6.873</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.52</v>
+        <v>0.407</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>21.259</v>
+        <v>1.307</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45075.52777777778</v>
+        <v>44781.98611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.78</v>
+        <v>1.313</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.93</v>
+        <v>0.918</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>2.079</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>5.308</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.678</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.241</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.128</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.395</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>9.826000000000001</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.041</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.016</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>2.953</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>1.069</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>1.351</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>5.002</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>1.302</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.99304398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="W6" s="4" t="n">
         <v>0.64</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>16.64</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>27.12</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>15.88</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>2.61</v>
+      <c r="X6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_394.xlsx
+++ b/DATA_goal/Junction_Flooding_394.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.96527777778</v>
+        <v>45075.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>8.821999999999999</v>
+        <v>12.77</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.243</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.794</v>
+        <v>3.488</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>19.605</v>
+        <v>27.776</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.205</v>
+        <v>20.765</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.893</v>
+        <v>9.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>19.279</v>
+        <v>29.191</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>10.957</v>
+        <v>15.707</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.563</v>
+        <v>6.218</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.697</v>
+        <v>9.112</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.759</v>
+        <v>10.928</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.683999999999999</v>
+        <v>11.76</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.881</v>
+        <v>3.255</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.143</v>
+        <v>10.151</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.409000000000001</v>
+        <v>13.871</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>6.779</v>
+        <v>9.122999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.556</v>
+        <v>2.77</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.752</v>
+        <v>1.592</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>101.319</v>
+        <v>147.125</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>19.6</v>
+        <v>28.067</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.594</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.192</v>
+        <v>18.004</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.907</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.798</v>
+        <v>2.728</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.548</v>
+        <v>15.858</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.824</v>
+        <v>8.276</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.505</v>
+        <v>7.652</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.107</v>
+        <v>9.069000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.566000000000001</v>
+        <v>11.378</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.095</v>
+        <v>2.869</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>16.882</v>
+        <v>26.432</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.332</v>
+        <v>4.957</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.242000000000001</v>
+        <v>11.713</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.97222222222</v>
+        <v>45075.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.595</v>
+        <v>18.102</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.285</v>
+        <v>13.159</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.242</v>
+        <v>1.817</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>10.437</v>
+        <v>39.655</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>7.589</v>
+        <v>31.61</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.018</v>
+        <v>14.122</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>15.191</v>
+        <v>53.101</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.733</v>
+        <v>22.106</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.562</v>
+        <v>9.574</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.933</v>
+        <v>14.003</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.131</v>
+        <v>15.847</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.622</v>
+        <v>16.923</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.526</v>
+        <v>4.589</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.76</v>
+        <v>14.287</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.018</v>
+        <v>20.129</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.671</v>
+        <v>12.349</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.713</v>
+        <v>1.395</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.423</v>
+        <v>1.064</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>49.914</v>
+        <v>210.134</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>10.634</v>
+        <v>39.929</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.47</v>
+        <v>13.187</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>6.648</v>
+        <v>26.485</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.61</v>
+        <v>13.819</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.445</v>
+        <v>2.463</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.475</v>
+        <v>26.538</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.065</v>
+        <v>11.648</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.928</v>
+        <v>10.481</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.332</v>
+        <v>12.341</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.489</v>
+        <v>16.576</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.973</v>
+        <v>1.165</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>14.271</v>
+        <v>48.637</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.719</v>
+        <v>7.277</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.34</v>
+        <v>16.487</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.97916666666</v>
+        <v>45075.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.282</v>
+        <v>23.416</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.864</v>
+        <v>17.348</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.745</v>
+        <v>1.539</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.137</v>
+        <v>51.193</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.902</v>
+        <v>41.514</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.59</v>
+        <v>18.347</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>7.067</v>
+        <v>71.07599999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.671</v>
+        <v>28.505</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.858</v>
+        <v>12.583</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.486</v>
+        <v>18.542</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.229</v>
+        <v>20.512</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.476</v>
+        <v>21.831</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.591</v>
+        <v>5.918</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.128</v>
+        <v>18.422</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.425</v>
+        <v>26.151</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.33</v>
+        <v>15.635</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.452</v>
+        <v>1.022</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.241</v>
+        <v>1.02</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>9.896000000000001</v>
+        <v>273.095</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.393</v>
+        <v>51.516</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.041</v>
+        <v>17.004</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.988</v>
+        <v>34.51</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.064</v>
+        <v>18.071</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.124</v>
+        <v>2.806</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.965</v>
+        <v>34.824</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.92</v>
+        <v>15.02</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.985</v>
+        <v>13.365</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.092</v>
+        <v>15.723</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.367</v>
+        <v>21.515</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.644</v>
+        <v>0.733</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.873</v>
+        <v>64.77</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.407</v>
+        <v>9.52</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.307</v>
+        <v>21.259</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.98611111111</v>
+        <v>45075.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.313</v>
+        <v>2.78</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.918</v>
+        <v>1.93</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.138</v>
+        <v>6.26</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.079</v>
+        <v>4.56</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.708</v>
+        <v>2.13</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.308</v>
+        <v>16.64</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.678</v>
+        <v>3.49</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.82</v>
+        <v>1.51</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.638</v>
+        <v>1.89</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.241</v>
+        <v>2.5</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.45</v>
+        <v>2.75</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.524</v>
+        <v>0.75</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.128</v>
+        <v>2.26</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.395</v>
+        <v>3.24</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.24</v>
+        <v>2.16</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.64</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.195</v>
+        <v>0.32</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9.826000000000001</v>
+        <v>27.12</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.19</v>
+        <v>6.8</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.041</v>
+        <v>2.08</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.851</v>
+        <v>4.43</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.016</v>
+        <v>2.16</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.134</v>
+        <v>0.59</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.953</v>
+        <v>7.43</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.92</v>
+        <v>1.84</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.9429999999999999</v>
+        <v>1.77</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.069</v>
+        <v>2.06</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.351</v>
+        <v>2.59</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.483</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.002</v>
+        <v>15.88</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.448</v>
+        <v>1.05</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.302</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.99304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.44</v>
+        <v>2.61</v>
       </c>
     </row>
   </sheetData>
